--- a/result/interactions_download/EXCEL/Lung_cancer_SCLC_only_precog_mut.xlsx
+++ b/result/interactions_download/EXCEL/Lung_cancer_SCLC_only_precog_mut.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve">gene_list</t>
   </si>
@@ -60,63 +60,63 @@
     <t xml:space="preserve">HES1</t>
   </si>
   <si>
+    <t xml:space="preserve">ALDH1A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CBR3</t>
   </si>
   <si>
-    <t xml:space="preserve">CCR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALDH1A3</t>
-  </si>
-  <si>
     <t xml:space="preserve">POC5</t>
   </si>
   <si>
     <t xml:space="preserve">PSORS1C2</t>
   </si>
   <si>
+    <t xml:space="preserve">BPHL</t>
+  </si>
+  <si>
     <t xml:space="preserve">FANCL</t>
   </si>
   <si>
     <t xml:space="preserve">ANKS3</t>
   </si>
   <si>
-    <t xml:space="preserve">BPHL</t>
-  </si>
-  <si>
     <t xml:space="preserve">HEBP2</t>
   </si>
   <si>
     <t xml:space="preserve">MESP1</t>
   </si>
   <si>
+    <t xml:space="preserve">JKAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFPL2</t>
+  </si>
+  <si>
     <t xml:space="preserve">LRP2BP</t>
   </si>
   <si>
-    <t xml:space="preserve">JKAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFPL2</t>
+    <t xml:space="preserve">TMBIM6</t>
   </si>
   <si>
     <t xml:space="preserve">TNP2</t>
   </si>
   <si>
+    <t xml:space="preserve">CCDC17</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPRT</t>
   </si>
   <si>
+    <t xml:space="preserve">SGPP1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PPP1R3C</t>
   </si>
   <si>
-    <t xml:space="preserve">TMBIM6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCDC17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGPP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOC642852</t>
   </si>
   <si>
@@ -168,12 +168,18 @@
     <t xml:space="preserve">RPL18</t>
   </si>
   <si>
+    <t xml:space="preserve">EGFR</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRIM23</t>
   </si>
   <si>
     <t xml:space="preserve">TNIP2</t>
   </si>
   <si>
+    <t xml:space="preserve">SH2D3C</t>
+  </si>
+  <si>
     <t xml:space="preserve">NRP1</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve">UBE3A</t>
   </si>
   <si>
+    <t xml:space="preserve">CHD4</t>
+  </si>
+  <si>
     <t xml:space="preserve">JUP</t>
   </si>
   <si>
@@ -213,7 +222,13 @@
     <t xml:space="preserve">RNF8</t>
   </si>
   <si>
+    <t xml:space="preserve">BRD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYN</t>
   </si>
   <si>
     <t xml:space="preserve">NTRK3</t>
@@ -606,13 +621,13 @@
         <v>-2.584</v>
       </c>
       <c r="D2" t="n">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="E2" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F2" t="n">
-        <v>79.3427230046948</v>
+        <v>88.4385964912281</v>
       </c>
     </row>
     <row r="3">
@@ -626,13 +641,13 @@
         <v>-2.615</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
-        <v>34.563829787234</v>
+        <v>38.0594059405941</v>
       </c>
     </row>
     <row r="4">
@@ -646,13 +661,13 @@
         <v>-2.713</v>
       </c>
       <c r="D4" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F4" t="n">
-        <v>31.8117647058824</v>
+        <v>35.2359550561798</v>
       </c>
     </row>
     <row r="5">
@@ -666,13 +681,13 @@
         <v>-2.688</v>
       </c>
       <c r="D5" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F5" t="n">
-        <v>28.2522522522522</v>
+        <v>32.801652892562</v>
       </c>
     </row>
     <row r="6">
@@ -686,13 +701,13 @@
         <v>-2.637</v>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>20.3380281690141</v>
+        <v>22.7162162162162</v>
       </c>
     </row>
     <row r="7">
@@ -706,13 +721,13 @@
         <v>-2.633</v>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>19.758064516129</v>
+        <v>21.5522388059701</v>
       </c>
     </row>
     <row r="8">
@@ -726,13 +741,13 @@
         <v>2.815</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>16.82</v>
+        <v>21.0181818181818</v>
       </c>
     </row>
     <row r="9">
@@ -746,13 +761,13 @@
         <v>-2.674</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>11.25</v>
+        <v>10.7142857142857</v>
       </c>
     </row>
     <row r="10">
@@ -763,16 +778,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2.584</v>
+        <v>-2.73</v>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>9.33333333333333</v>
+        <v>10.5625</v>
       </c>
     </row>
     <row r="11">
@@ -786,13 +801,13 @@
         <v>-2.943</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>8.65384615384615</v>
+        <v>10.3214285714286</v>
       </c>
     </row>
     <row r="12">
@@ -803,16 +818,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.73</v>
+        <v>2.584</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>8.64285714285714</v>
+        <v>10.2272727272727</v>
       </c>
     </row>
     <row r="13">
@@ -826,13 +841,13 @@
         <v>2.712</v>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>7.34782608695652</v>
+        <v>7.04166666666667</v>
       </c>
     </row>
     <row r="14">
@@ -863,16 +878,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.587</v>
+        <v>2.669</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>4.9</v>
+        <v>5.14285714285714</v>
       </c>
     </row>
     <row r="16">
@@ -883,16 +898,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.59</v>
+        <v>-2.587</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="17">
@@ -903,16 +918,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2.669</v>
+        <v>-2.59</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>4.16666666666667</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="18">
@@ -963,16 +978,16 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>2.646</v>
+        <v>2.606</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -983,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>2.606</v>
+        <v>2.995</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>3.57142857142857</v>
       </c>
     </row>
     <row r="22">
@@ -1003,16 +1018,16 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>2.995</v>
+        <v>2.646</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>2.66666666666667</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="23">
@@ -1023,16 +1038,16 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.58</v>
+        <v>-2.63</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>2.66666666666667</v>
+        <v>2.77777777777778</v>
       </c>
     </row>
     <row r="24">
@@ -1043,16 +1058,16 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>2.748</v>
+        <v>-2.58</v>
       </c>
       <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
       <c r="F24" t="n">
-        <v>2.25</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -1063,16 +1078,16 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>2.658</v>
+        <v>-2.724</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -1083,16 +1098,16 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.63</v>
+        <v>2.748</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="27">
@@ -1103,16 +1118,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.724</v>
+        <v>2.624</v>
       </c>
       <c r="D27" t="n">
+        <v>12</v>
+      </c>
+      <c r="E27" t="n">
         <v>5</v>
       </c>
-      <c r="E27" t="n">
-        <v>3</v>
-      </c>
       <c r="F27" t="n">
-        <v>1.8</v>
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -1123,16 +1138,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>2.624</v>
+        <v>2.658</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1186,13 +1201,13 @@
         <v>-2.62</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32">
@@ -1206,13 +1221,13 @@
         <v>-2.638</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -1674,6 +1689,56 @@
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,10 +1756,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1702,12 +1767,12 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1715,7 +1780,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1723,186 +1788,186 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1910,55 +1975,55 @@
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -1966,60 +2031,60 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -2027,143 +2092,143 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
         <v>52</v>
@@ -2171,18 +2236,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
@@ -2190,23 +2255,23 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
@@ -2214,180 +2279,180 @@
         <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s">
         <v>52</v>
@@ -2395,511 +2460,511 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
         <v>74</v>
-      </c>
-      <c r="B114" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" t="s">
         <v>47</v>
-      </c>
-      <c r="B126" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B127" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" t="s">
         <v>74</v>
-      </c>
-      <c r="B130" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B133" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B134" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B140" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143" t="s">
         <v>54</v>
-      </c>
-      <c r="B143" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>59</v>
+      </c>
+      <c r="B145" t="s">
         <v>56</v>
-      </c>
-      <c r="B145" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B146" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B150" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B152" t="s">
         <v>48</v>
@@ -2907,119 +2972,119 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B157" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B159" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B160" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B161" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B162" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B164" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B165" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B167" t="s">
         <v>51</v>
@@ -3027,10 +3092,858 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>63</v>
+      </c>
+      <c r="B168" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>63</v>
+      </c>
+      <c r="B169" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>62</v>
+      </c>
+      <c r="B170" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>64</v>
+      </c>
+      <c r="B171" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>62</v>
+      </c>
+      <c r="B172" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>60</v>
+      </c>
+      <c r="B173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>67</v>
+      </c>
+      <c r="B174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B176" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>65</v>
+      </c>
+      <c r="B177" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>62</v>
+      </c>
+      <c r="B178" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>65</v>
+      </c>
+      <c r="B179" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>65</v>
+      </c>
+      <c r="B180" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>65</v>
+      </c>
+      <c r="B181" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>65</v>
+      </c>
+      <c r="B182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>65</v>
+      </c>
+      <c r="B183" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>65</v>
+      </c>
+      <c r="B185" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>65</v>
+      </c>
+      <c r="B186" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>65</v>
+      </c>
+      <c r="B187" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>65</v>
+      </c>
+      <c r="B188" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>57</v>
+      </c>
+      <c r="B189" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>51</v>
+      </c>
+      <c r="B191" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>65</v>
+      </c>
+      <c r="B192" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>66</v>
+      </c>
+      <c r="B193" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>66</v>
+      </c>
+      <c r="B194" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B195" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>57</v>
+      </c>
+      <c r="B197" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>67</v>
+      </c>
+      <c r="B198" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>65</v>
+      </c>
+      <c r="B199" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>67</v>
+      </c>
+      <c r="B200" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>51</v>
+      </c>
+      <c r="B201" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>62</v>
+      </c>
+      <c r="B202" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>67</v>
+      </c>
+      <c r="B203" t="s">
         <v>74</v>
       </c>
-      <c r="B168" t="s">
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>67</v>
+      </c>
+      <c r="B204" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>47</v>
+      </c>
+      <c r="B206" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>67</v>
+      </c>
+      <c r="B207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>77</v>
+      </c>
+      <c r="B208" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>69</v>
+      </c>
+      <c r="B209" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>68</v>
+      </c>
+      <c r="B210" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
         <v>65</v>
+      </c>
+      <c r="B211" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>71</v>
+      </c>
+      <c r="B212" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>79</v>
+      </c>
+      <c r="B213" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>48</v>
+      </c>
+      <c r="B214" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>62</v>
+      </c>
+      <c r="B215" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>66</v>
+      </c>
+      <c r="B216" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>77</v>
+      </c>
+      <c r="B217" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>63</v>
+      </c>
+      <c r="B218" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>51</v>
+      </c>
+      <c r="B219" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>69</v>
+      </c>
+      <c r="B220" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>69</v>
+      </c>
+      <c r="B221" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>69</v>
+      </c>
+      <c r="B222" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>63</v>
+      </c>
+      <c r="B223" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>56</v>
+      </c>
+      <c r="B224" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>70</v>
+      </c>
+      <c r="B225" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>66</v>
+      </c>
+      <c r="B226" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>51</v>
+      </c>
+      <c r="B227" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>76</v>
+      </c>
+      <c r="B228" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>71</v>
+      </c>
+      <c r="B229" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>71</v>
+      </c>
+      <c r="B230" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>71</v>
+      </c>
+      <c r="B231" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>71</v>
+      </c>
+      <c r="B232" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>56</v>
+      </c>
+      <c r="B233" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>51</v>
+      </c>
+      <c r="B234" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>66</v>
+      </c>
+      <c r="B235" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>71</v>
+      </c>
+      <c r="B236" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>71</v>
+      </c>
+      <c r="B237" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>71</v>
+      </c>
+      <c r="B238" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>72</v>
+      </c>
+      <c r="B239" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>73</v>
+      </c>
+      <c r="B240" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>56</v>
+      </c>
+      <c r="B241" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>66</v>
+      </c>
+      <c r="B242" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>51</v>
+      </c>
+      <c r="B243" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>58</v>
+      </c>
+      <c r="B244" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>73</v>
+      </c>
+      <c r="B246" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>75</v>
+      </c>
+      <c r="B247" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>75</v>
+      </c>
+      <c r="B248" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>65</v>
+      </c>
+      <c r="B249" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>76</v>
+      </c>
+      <c r="B250" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>76</v>
+      </c>
+      <c r="B251" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>76</v>
+      </c>
+      <c r="B252" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>76</v>
+      </c>
+      <c r="B253" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>76</v>
+      </c>
+      <c r="B254" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>76</v>
+      </c>
+      <c r="B255" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>57</v>
+      </c>
+      <c r="B256" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>77</v>
+      </c>
+      <c r="B257" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>51</v>
+      </c>
+      <c r="B258" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>77</v>
+      </c>
+      <c r="B259" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>77</v>
+      </c>
+      <c r="B261" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>77</v>
+      </c>
+      <c r="B262" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>57</v>
+      </c>
+      <c r="B263" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>51</v>
+      </c>
+      <c r="B264" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>78</v>
+      </c>
+      <c r="B265" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>65</v>
+      </c>
+      <c r="B266" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>71</v>
+      </c>
+      <c r="B267" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>57</v>
+      </c>
+      <c r="B268" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>79</v>
+      </c>
+      <c r="B269" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>51</v>
+      </c>
+      <c r="B270" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>79</v>
+      </c>
+      <c r="B271" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>65</v>
+      </c>
+      <c r="B272" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>79</v>
+      </c>
+      <c r="B273" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>79</v>
+      </c>
+      <c r="B274" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
